--- a/data/summary_22071911.xlsx
+++ b/data/summary_22071911.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H20"/>
+  <dimension ref="A1:I20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -360,40 +360,45 @@
     <row r="1" s="1" customFormat="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>Ponto</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>Tair_m</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>Presurre_m</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>Taxa_Linear</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>Taxa_quad</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>FCO2</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>FO2</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>Ts</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>Ms</t>
         </is>
@@ -401,486 +406,543 @@
     </row>
     <row r="2">
       <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
         <v>34.07513812154696</v>
       </c>
-      <c r="B2">
+      <c r="C2">
         <v>993.4955801104973</v>
       </c>
-      <c r="C2">
+      <c r="D2">
         <v>0.2004512396694215</v>
       </c>
-      <c r="D2">
+      <c r="E2">
         <v>0.1373685950413223</v>
       </c>
-      <c r="E2">
+      <c r="F2">
         <v>1.466660264561198</v>
       </c>
-      <c r="F2">
+      <c r="G2">
         <v>0.0003697157271348439</v>
       </c>
-      <c r="G2">
+      <c r="H2">
         <v>26.71381215469613</v>
       </c>
-      <c r="H2">
+      <c r="I2">
         <v>2.802209944751381</v>
       </c>
     </row>
     <row r="3">
       <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3">
         <v>35.68232044198895</v>
       </c>
-      <c r="B3">
+      <c r="C3">
         <v>993.5005524861879</v>
       </c>
-      <c r="C3">
+      <c r="D3">
         <v>0.3366586776859504</v>
       </c>
-      <c r="D3">
+      <c r="E3">
         <v>0.3394619834710744</v>
       </c>
-      <c r="E3">
+      <c r="F3">
         <v>2.0148527034673</v>
       </c>
-      <c r="F3">
+      <c r="G3">
         <v>0.0001249341408299115</v>
       </c>
-      <c r="G3">
+      <c r="H3">
         <v>28.20441988950276</v>
       </c>
-      <c r="H3">
+      <c r="I3">
         <v>5.411602209944752</v>
       </c>
     </row>
     <row r="4">
       <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4">
         <v>37.41491712707182</v>
       </c>
-      <c r="B4">
+      <c r="C4">
         <v>993.4198895027624</v>
       </c>
-      <c r="C4">
+      <c r="D4">
         <v>0.2899173553719008</v>
       </c>
-      <c r="D4">
+      <c r="E4">
         <v>0.2890528925619835</v>
       </c>
-      <c r="E4">
+      <c r="F4">
         <v>1.796191195901746</v>
       </c>
-      <c r="F4">
+      <c r="G4">
         <v>0.0001278530748494797</v>
       </c>
-      <c r="G4">
+      <c r="H4">
         <v>29.17016574585635</v>
       </c>
-      <c r="H4">
+      <c r="I4">
         <v>6.034806629834254</v>
       </c>
     </row>
     <row r="5">
       <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5">
         <v>35.4182320441989</v>
       </c>
-      <c r="B5">
+      <c r="C5">
         <v>993.3850828729281</v>
       </c>
-      <c r="C5">
+      <c r="D5">
         <v>0.2806223140495868</v>
       </c>
-      <c r="D5">
+      <c r="E5">
         <v>0.2647438016528926</v>
       </c>
-      <c r="E5">
+      <c r="F5">
         <v>1.738227223133567</v>
       </c>
-      <c r="F5">
+      <c r="G5">
         <v>-7.172044911710863e-005</v>
       </c>
-      <c r="G5">
+      <c r="H5">
         <v>29.0292817679558</v>
       </c>
-      <c r="H5">
+      <c r="I5">
         <v>12.58397790055249</v>
       </c>
     </row>
     <row r="6">
       <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6">
         <v>33.38121546961326</v>
       </c>
-      <c r="B6">
+      <c r="C6">
         <v>993.2988950276242</v>
       </c>
-      <c r="C6">
+      <c r="D6">
         <v>0.3524074380165289</v>
       </c>
-      <c r="D6">
+      <c r="E6">
         <v>0.3563561983471074</v>
       </c>
-      <c r="E6">
+      <c r="F6">
         <v>2.169543984345256</v>
       </c>
-      <c r="F6">
+      <c r="G6">
         <v>-0.0001235237414658729</v>
       </c>
-      <c r="G6">
+      <c r="H6">
         <v>27.67955801104973</v>
       </c>
-      <c r="H6">
+      <c r="I6">
         <v>13.1353591160221</v>
       </c>
     </row>
     <row r="7">
       <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7">
         <v>32.54972375690608</v>
       </c>
-      <c r="B7">
+      <c r="C7">
         <v>993.214364640884</v>
       </c>
-      <c r="C7">
+      <c r="D7">
         <v>0.468196694214876</v>
       </c>
-      <c r="D7">
+      <c r="E7">
         <v>0.4554867768595041</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>2.947130281760897</v>
       </c>
-      <c r="F7">
+      <c r="G7">
         <v>0.0001027420444848788</v>
       </c>
-      <c r="G7">
+      <c r="H7">
         <v>26.84475138121547</v>
       </c>
-      <c r="H7">
+      <c r="I7">
         <v>7.495027624309392</v>
       </c>
     </row>
     <row r="8">
       <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8">
         <v>33.32541436464089</v>
       </c>
-      <c r="B8">
+      <c r="C8">
         <v>993.1933701657459</v>
       </c>
-      <c r="C8">
+      <c r="D8">
         <v>0.4863115702479339</v>
       </c>
-      <c r="D8">
+      <c r="E8">
         <v>0.4398289256198347</v>
       </c>
-      <c r="E8">
+      <c r="F8">
         <v>3.149577097693346</v>
       </c>
-      <c r="F8">
+      <c r="G8">
         <v>0.0001890695538368719</v>
       </c>
-      <c r="G8">
+      <c r="H8">
         <v>27.83204419889503</v>
       </c>
-      <c r="H8">
+      <c r="I8">
         <v>1.540331491712707</v>
       </c>
     </row>
     <row r="9">
       <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9">
         <v>34.01176470588236</v>
       </c>
-      <c r="B9">
+      <c r="C9">
         <v>993.1588235294119</v>
       </c>
-      <c r="F9">
+      <c r="G9">
         <v>0.0003335850165744723</v>
       </c>
-      <c r="G9">
+      <c r="H9">
         <v>29.2</v>
       </c>
-      <c r="H9">
+      <c r="I9">
         <v>3.6</v>
       </c>
     </row>
     <row r="10">
       <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10">
         <v>36.16353591160221</v>
       </c>
-      <c r="B10">
+      <c r="C10">
         <v>993.1779005524862</v>
       </c>
-      <c r="C10">
+      <c r="D10">
         <v>0.4714429752066116</v>
       </c>
-      <c r="D10">
+      <c r="E10">
         <v>0.4644289256198347</v>
       </c>
-      <c r="E10">
+      <c r="F10">
         <v>2.912574345986436</v>
       </c>
-      <c r="F10">
+      <c r="G10">
         <v>6.470611743182574e-005</v>
       </c>
-      <c r="G10">
+      <c r="H10">
         <v>29.89116022099448</v>
       </c>
-      <c r="H10">
+      <c r="I10">
         <v>3.742541436464089</v>
       </c>
     </row>
     <row r="11">
       <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11">
         <v>35.75745856353591</v>
       </c>
-      <c r="B11">
+      <c r="C11">
         <v>993.1950276243094</v>
       </c>
-      <c r="C11">
+      <c r="D11">
         <v>0.3971462809917356</v>
       </c>
-      <c r="D11">
+      <c r="E11">
         <v>0.3855305785123967</v>
       </c>
-      <c r="E11">
+      <c r="F11">
         <v>2.360939965897982</v>
       </c>
-      <c r="F11">
+      <c r="G11">
         <v>-1.286404201875172e-017</v>
       </c>
-      <c r="G11">
+      <c r="H11">
         <v>30.05690607734807</v>
       </c>
-      <c r="H11">
+      <c r="I11">
         <v>6.952486187845304</v>
       </c>
     </row>
     <row r="12">
       <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12">
         <v>36.12541436464088</v>
       </c>
-      <c r="B12">
+      <c r="C12">
         <v>993.1038674033149</v>
       </c>
-      <c r="C12">
+      <c r="D12">
         <v>0.2467768595041322</v>
       </c>
-      <c r="D12">
+      <c r="E12">
         <v>0.2433851239669422</v>
       </c>
-      <c r="E12">
+      <c r="F12">
         <v>1.525708586070283</v>
       </c>
-      <c r="F12">
+      <c r="G12">
         <v>0.0001751694664362148</v>
       </c>
-      <c r="G12">
+      <c r="H12">
         <v>30.49834254143647</v>
       </c>
-      <c r="H12">
+      <c r="I12">
         <v>8.335359116022101</v>
       </c>
     </row>
     <row r="13">
       <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13">
         <v>37.14198895027624</v>
       </c>
-      <c r="B13">
+      <c r="C13">
         <v>993.0121546961326</v>
       </c>
-      <c r="C13">
+      <c r="D13">
         <v>0.4414173553719009</v>
       </c>
-      <c r="D13">
+      <c r="E13">
         <v>0.4530198347107438</v>
       </c>
-      <c r="E13">
+      <c r="F13">
         <v>2.764667682177471</v>
       </c>
-      <c r="F13">
+      <c r="G13">
         <v>0.0001328472020048906</v>
       </c>
-      <c r="G13">
+      <c r="H13">
         <v>31.79447513812155</v>
       </c>
-      <c r="H13">
+      <c r="I13">
         <v>5.9</v>
       </c>
     </row>
     <row r="14">
       <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14">
         <v>37.41325966850829</v>
       </c>
-      <c r="B14">
+      <c r="C14">
         <v>992.9077348066298</v>
       </c>
-      <c r="C14">
+      <c r="D14">
         <v>0.3709710743801653</v>
       </c>
-      <c r="D14">
+      <c r="E14">
         <v>0.3736685950413223</v>
       </c>
-      <c r="E14">
+      <c r="F14">
         <v>2.27861796548262</v>
       </c>
-      <c r="F14">
+      <c r="G14">
         <v>0.0001342008117565241</v>
       </c>
-      <c r="G14">
+      <c r="H14">
         <v>32.42154696132597</v>
       </c>
-      <c r="H14">
+      <c r="I14">
         <v>3.793922651933702</v>
       </c>
     </row>
     <row r="15">
       <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15">
         <v>39.02707182320442</v>
       </c>
-      <c r="B15">
+      <c r="C15">
         <v>992.8861878453039</v>
       </c>
-      <c r="C15">
+      <c r="D15">
         <v>0.3345826446280992</v>
       </c>
-      <c r="D15">
+      <c r="E15">
         <v>0.3193355371900826</v>
       </c>
-      <c r="E15">
+      <c r="F15">
         <v>2.129402871277262</v>
       </c>
-      <c r="F15">
+      <c r="G15">
         <v>0.000346318816559311</v>
       </c>
-      <c r="G15">
+      <c r="H15">
         <v>33.00497237569061</v>
       </c>
-      <c r="H15">
+      <c r="I15">
         <v>5.724861878453039</v>
       </c>
     </row>
     <row r="16">
       <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16">
         <v>38.69447513812155</v>
       </c>
-      <c r="B16">
+      <c r="C16">
         <v>992.8629834254143</v>
       </c>
-      <c r="C16">
+      <c r="D16">
         <v>0.304201652892562</v>
       </c>
-      <c r="D16">
+      <c r="E16">
         <v>0.279702479338843</v>
       </c>
-      <c r="E16">
+      <c r="F16">
         <v>1.994101043197897</v>
       </c>
-      <c r="F16">
+      <c r="G16">
         <v>0.000330274997176293</v>
       </c>
-      <c r="G16">
+      <c r="H16">
         <v>33.68508287292818</v>
       </c>
-      <c r="H16">
+      <c r="I16">
         <v>1.203314917127072</v>
       </c>
     </row>
     <row r="17">
       <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17">
         <v>38.40718232044199</v>
       </c>
-      <c r="B17">
+      <c r="C17">
         <v>992.8171270718232</v>
       </c>
-      <c r="C17">
+      <c r="D17">
         <v>0.3606157024793388</v>
       </c>
-      <c r="D17">
+      <c r="E17">
         <v>0.3859900826446281</v>
       </c>
-      <c r="E17">
+      <c r="F17">
         <v>2.133493270127257</v>
       </c>
-      <c r="F17">
+      <c r="G17">
         <v>0.0001669513342147154</v>
       </c>
-      <c r="G17">
+      <c r="H17">
         <v>34.46077348066299</v>
       </c>
-      <c r="H17">
+      <c r="I17">
         <v>5.728729281767956</v>
       </c>
     </row>
     <row r="18">
       <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18">
         <v>40.32817679558011</v>
       </c>
-      <c r="B18">
+      <c r="C18">
         <v>992.7193370165746</v>
       </c>
-      <c r="C18">
+      <c r="D18">
         <v>0.3203809917355372</v>
       </c>
-      <c r="D18">
+      <c r="E18">
         <v>0.2750471074380165</v>
       </c>
-      <c r="E18">
+      <c r="F18">
         <v>2.051810426627467</v>
       </c>
-      <c r="F18">
+      <c r="G18">
         <v>0.0001807048770292561</v>
       </c>
-      <c r="G18">
+      <c r="H18">
         <v>35.16519337016575</v>
       </c>
-      <c r="H18">
+      <c r="I18">
         <v>2.307182320441989</v>
       </c>
     </row>
     <row r="19">
       <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19">
         <v>41.34696132596685</v>
       </c>
-      <c r="B19">
+      <c r="C19">
         <v>992.6911602209946</v>
       </c>
-      <c r="C19">
+      <c r="D19">
         <v>0.300896694214876</v>
       </c>
-      <c r="D19">
+      <c r="E19">
         <v>0.2984834710743802</v>
       </c>
-      <c r="E19">
+      <c r="F19">
         <v>1.84059229637074</v>
       </c>
-      <c r="F19">
+      <c r="G19">
         <v>5.480110539053349e-005</v>
       </c>
-      <c r="G19">
+      <c r="H19">
         <v>35.3</v>
       </c>
-      <c r="H19">
+      <c r="I19">
         <v>5.885082872928177</v>
       </c>
     </row>
     <row r="20">
       <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20">
         <v>41.85690607734806</v>
       </c>
-      <c r="B20">
+      <c r="C20">
         <v>992.6812154696133</v>
       </c>
-      <c r="C20">
+      <c r="D20">
         <v>0.3947413223140496</v>
       </c>
-      <c r="D20">
+      <c r="E20">
         <v>0.3945933884297521</v>
       </c>
-      <c r="E20">
+      <c r="F20">
         <v>2.450123799066234</v>
       </c>
-      <c r="F20">
+      <c r="G20">
         <v>9.506081369909771e-005</v>
       </c>
-      <c r="G20">
+      <c r="H20">
         <v>35.52762430939227</v>
       </c>
-      <c r="H20">
+      <c r="I20">
         <v>0</v>
       </c>
     </row>
